--- a/Input/Input 4.xlsx
+++ b/Input/Input 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LevaniBukhnikashvili\Documents\UiPath\ExcellProcessor\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6021342A-C45E-43AD-8234-9CCD36CD5B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE30D9FD-0BE9-4633-BA08-F3222B5EA386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1020" windowWidth="16200" windowHeight="9210" xr2:uid="{FEEE49A6-633F-4B76-AE8A-527F4E033E14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{FEEE49A6-633F-4B76-AE8A-527F4E033E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>First Name</t>
   </si>
@@ -140,13 +140,22 @@
   </si>
   <si>
     <t xml:space="preserve">Rose </t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>lee.s@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +286,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,7 +596,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -622,11 +639,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -660,6 +679,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1000,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D0D2CD-F2D7-449C-A043-6E955D05C135}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,13 +1182,68 @@
         <v>18</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{D8B8711A-D9EA-471B-8CB9-9BD72D063F22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>